--- a/MF_Report.xlsx
+++ b/MF_Report.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,45 +470,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Current NAV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return Nifty Equiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>invested</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>weightedDays</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return Nifty Equiv.</t>
         </is>
@@ -536,32 +541,33 @@
       <c r="E2" t="n">
         <v>350.337</v>
       </c>
-      <c r="F2" t="n">
-        <v>120</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>392.694</v>
+        <v>379</v>
       </c>
       <c r="H2" t="n">
-        <v>9.565</v>
+        <v>504.797</v>
       </c>
       <c r="I2" t="n">
-        <v>12.09</v>
+        <v>27.527</v>
       </c>
       <c r="J2" t="n">
+        <v>44.089</v>
+      </c>
+      <c r="K2" t="n">
         <v>99.846</v>
       </c>
-      <c r="K2" t="n">
-        <v>111.918</v>
-      </c>
       <c r="L2" t="n">
-        <v>3.994</v>
+        <v>143.867</v>
       </c>
       <c r="M2" t="n">
-        <v>0.402</v>
+        <v>12.616</v>
       </c>
       <c r="N2" t="n">
-        <v>0.318</v>
+        <v>1.468</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.916</v>
       </c>
     </row>
     <row r="3">
@@ -586,32 +592,33 @@
       <c r="E3" t="n">
         <v>370.074</v>
       </c>
-      <c r="F3" t="n">
-        <v>60</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>392.694</v>
+        <v>319</v>
       </c>
       <c r="H3" t="n">
-        <v>2.958</v>
+        <v>504.797</v>
       </c>
       <c r="I3" t="n">
-        <v>6.112</v>
+        <v>19.836</v>
       </c>
       <c r="J3" t="n">
+        <v>36.404</v>
+      </c>
+      <c r="K3" t="n">
         <v>1999.88</v>
       </c>
-      <c r="K3" t="n">
-        <v>2122.118</v>
-      </c>
       <c r="L3" t="n">
-        <v>40.003</v>
+        <v>2727.923</v>
       </c>
       <c r="M3" t="n">
-        <v>4.075</v>
+        <v>212.684</v>
       </c>
       <c r="N3" t="n">
-        <v>1.972</v>
+        <v>24.272</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.225</v>
       </c>
     </row>
     <row r="4">
@@ -636,32 +643,33 @@
       <c r="E4" t="n">
         <v>393.462</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>392.694</v>
+        <v>260</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.285</v>
+        <v>504.797</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.195</v>
+        <v>16.063</v>
       </c>
       <c r="J4" t="n">
+        <v>28.296</v>
+      </c>
+      <c r="K4" t="n">
         <v>899.848</v>
       </c>
-      <c r="K4" t="n">
-        <v>898.091</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.3</v>
+        <v>1154.471</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.059</v>
+        <v>77.998</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.08500000000000001</v>
+        <v>8.489000000000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.819</v>
       </c>
     </row>
   </sheetData>
@@ -735,22 +743,22 @@
         <v>2999.574</v>
       </c>
       <c r="C2" t="n">
-        <v>3132.127</v>
+        <v>4026.261</v>
       </c>
       <c r="D2" t="n">
-        <v>44.298</v>
+        <v>303.298</v>
       </c>
       <c r="E2" t="n">
-        <v>4.419</v>
+        <v>34.228</v>
       </c>
       <c r="F2" t="n">
-        <v>2.205</v>
+        <v>18.96</v>
       </c>
       <c r="G2" t="n">
-        <v>42.302</v>
+        <v>42.438</v>
       </c>
       <c r="H2" t="n">
-        <v>19.578</v>
+        <v>23.215</v>
       </c>
     </row>
     <row r="3">
@@ -763,22 +771,22 @@
         <v>3999.799</v>
       </c>
       <c r="C3" t="n">
-        <v>4055.674</v>
+        <v>4728.366</v>
       </c>
       <c r="D3" t="n">
-        <v>58.501</v>
+        <v>317.501</v>
       </c>
       <c r="E3" t="n">
-        <v>1.397</v>
+        <v>18.215</v>
       </c>
       <c r="F3" t="n">
-        <v>1.044</v>
+        <v>17.61</v>
       </c>
       <c r="G3" t="n">
-        <v>9.023999999999999</v>
+        <v>21.195</v>
       </c>
       <c r="H3" t="n">
-        <v>6.688</v>
+        <v>20.483</v>
       </c>
     </row>
     <row r="4">
@@ -791,22 +799,22 @@
         <v>2999.846</v>
       </c>
       <c r="C4" t="n">
-        <v>3113.145</v>
+        <v>3931.577</v>
       </c>
       <c r="D4" t="n">
-        <v>34.667</v>
+        <v>293.667</v>
       </c>
       <c r="E4" t="n">
-        <v>3.777</v>
+        <v>31.059</v>
       </c>
       <c r="F4" t="n">
-        <v>0.338</v>
+        <v>16.788</v>
       </c>
       <c r="G4" t="n">
-        <v>47.207</v>
+        <v>39.914</v>
       </c>
       <c r="H4" t="n">
-        <v>3.617</v>
+        <v>21.261</v>
       </c>
     </row>
     <row r="5">
@@ -819,22 +827,22 @@
         <v>3999.803</v>
       </c>
       <c r="C5" t="n">
-        <v>4031.681</v>
+        <v>5211.466</v>
       </c>
       <c r="D5" t="n">
-        <v>40.5</v>
+        <v>299.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.797</v>
+        <v>30.293</v>
       </c>
       <c r="F5" t="n">
-        <v>1.147</v>
+        <v>17.729</v>
       </c>
       <c r="G5" t="n">
-        <v>7.399</v>
+        <v>37.995</v>
       </c>
       <c r="H5" t="n">
-        <v>10.786</v>
+        <v>21.986</v>
       </c>
     </row>
     <row r="6">
@@ -847,22 +855,22 @@
         <v>3999.815</v>
       </c>
       <c r="C6" t="n">
-        <v>3952.529</v>
+        <v>4604.235</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.182</v>
+        <v>15.111</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.998</v>
+        <v>15.232</v>
       </c>
       <c r="G6" t="n">
-        <v>-16.576</v>
+        <v>19.898</v>
       </c>
       <c r="H6" t="n">
-        <v>-14.177</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="7">
@@ -875,22 +883,22 @@
         <v>1999.897</v>
       </c>
       <c r="C7" t="n">
-        <v>2032.165</v>
+        <v>2522.201</v>
       </c>
       <c r="D7" t="n">
-        <v>19.5</v>
+        <v>278.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.613</v>
+        <v>26.117</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.97</v>
+        <v>15.265</v>
       </c>
       <c r="G7" t="n">
-        <v>34.73</v>
+        <v>35.526</v>
       </c>
       <c r="H7" t="n">
-        <v>-16.726</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="8">
@@ -903,22 +911,22 @@
         <v>1999.843</v>
       </c>
       <c r="C8" t="n">
-        <v>2020.721</v>
+        <v>2513.023</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="E8" t="n">
-        <v>1.044</v>
+        <v>25.661</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.202</v>
+        <v>13.831</v>
       </c>
       <c r="G8" t="n">
-        <v>14.498</v>
+        <v>33.709</v>
       </c>
       <c r="H8" t="n">
-        <v>-25.196</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="9">
@@ -931,22 +939,22 @@
         <v>999.944</v>
       </c>
       <c r="C9" t="n">
-        <v>1005.537</v>
+        <v>1280.898</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5590000000000001</v>
+        <v>28.097</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.841</v>
+        <v>14.251</v>
       </c>
       <c r="G9" t="n">
-        <v>8.484999999999999</v>
+        <v>37.471</v>
       </c>
       <c r="H9" t="n">
-        <v>-23.762</v>
+        <v>18.676</v>
       </c>
     </row>
     <row r="10">
@@ -959,22 +967,22 @@
         <v>999.8920000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>1021.12</v>
+        <v>1364.991</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="E10" t="n">
-        <v>2.123</v>
+        <v>36.514</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.841</v>
+        <v>14.251</v>
       </c>
       <c r="G10" t="n">
-        <v>35.896</v>
+        <v>49.187</v>
       </c>
       <c r="H10" t="n">
-        <v>-23.762</v>
+        <v>18.676</v>
       </c>
     </row>
     <row r="11">
@@ -987,22 +995,22 @@
         <v>23998.412</v>
       </c>
       <c r="C11" t="n">
-        <v>24364.7</v>
+        <v>30183.019</v>
       </c>
       <c r="D11" t="n">
-        <v>36.412</v>
+        <v>295.412</v>
       </c>
       <c r="E11" t="n">
-        <v>1.526</v>
+        <v>25.771</v>
       </c>
       <c r="F11" t="n">
-        <v>0.099</v>
+        <v>16.509</v>
       </c>
       <c r="G11" t="n">
-        <v>16.327</v>
+        <v>32.716</v>
       </c>
       <c r="H11" t="n">
-        <v>0.995</v>
+        <v>20.765</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,45 +1060,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Current NAV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return Nifty Equiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>invested</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>weightedDays</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return Nifty Equiv.</t>
         </is>
@@ -1118,32 +1131,33 @@
       <c r="E2" t="n">
         <v>187.773</v>
       </c>
-      <c r="F2" t="n">
-        <v>88</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>198.915</v>
+        <v>347</v>
       </c>
       <c r="H2" t="n">
-        <v>5.437</v>
+        <v>231.908</v>
       </c>
       <c r="I2" t="n">
-        <v>5.934</v>
+        <v>22.722</v>
       </c>
       <c r="J2" t="n">
+        <v>23.504</v>
+      </c>
+      <c r="K2" t="n">
         <v>1999.972</v>
       </c>
-      <c r="K2" t="n">
-        <v>2118.642</v>
-      </c>
       <c r="L2" t="n">
-        <v>44.002</v>
+        <v>2470.049</v>
       </c>
       <c r="M2" t="n">
-        <v>2.967</v>
+        <v>173.506</v>
       </c>
       <c r="N2" t="n">
-        <v>2.719</v>
+        <v>11.753</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11.362</v>
       </c>
     </row>
     <row r="3">
@@ -1168,32 +1182,33 @@
       <c r="E3" t="n">
         <v>205.363</v>
       </c>
-      <c r="F3" t="n">
-        <v>29</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>198.915</v>
+        <v>288</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.348</v>
+        <v>231.908</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.14</v>
+        <v>12.497</v>
       </c>
       <c r="J3" t="n">
+        <v>12.926</v>
+      </c>
+      <c r="K3" t="n">
         <v>1999.827</v>
       </c>
-      <c r="K3" t="n">
-        <v>1937.032</v>
-      </c>
       <c r="L3" t="n">
-        <v>14.499</v>
+        <v>2258.317</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.57</v>
+        <v>143.995</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.674</v>
+        <v>6.463</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.248</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,45 +1258,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Current NAV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return Nifty Equiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>invested</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>weightedDays</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return Nifty Equiv.</t>
         </is>
@@ -1309,32 +1329,33 @@
       <c r="E2" t="n">
         <v>93.48</v>
       </c>
-      <c r="F2" t="n">
-        <v>65</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>99.91800000000001</v>
+        <v>324</v>
       </c>
       <c r="H2" t="n">
-        <v>2.955</v>
+        <v>126.186</v>
       </c>
       <c r="I2" t="n">
-        <v>6.887</v>
+        <v>19.833</v>
       </c>
       <c r="J2" t="n">
+        <v>34.987</v>
+      </c>
+      <c r="K2" t="n">
         <v>999.956</v>
       </c>
-      <c r="K2" t="n">
-        <v>1068.823</v>
-      </c>
       <c r="L2" t="n">
-        <v>21.667</v>
+        <v>1349.812</v>
       </c>
       <c r="M2" t="n">
-        <v>2.296</v>
+        <v>108.001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.985</v>
+        <v>11.662</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.611</v>
       </c>
     </row>
     <row r="3">
@@ -1359,32 +1380,33 @@
       <c r="E3" t="n">
         <v>96.13</v>
       </c>
-      <c r="F3" t="n">
-        <v>35</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>99.91800000000001</v>
+        <v>294</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.3</v>
+        <v>126.186</v>
       </c>
       <c r="I3" t="n">
-        <v>3.94</v>
+        <v>14.881</v>
       </c>
       <c r="J3" t="n">
+        <v>31.266</v>
+      </c>
+      <c r="K3" t="n">
         <v>999.944</v>
       </c>
-      <c r="K3" t="n">
-        <v>1039.347</v>
-      </c>
       <c r="L3" t="n">
-        <v>11.667</v>
+        <v>1312.587</v>
       </c>
       <c r="M3" t="n">
-        <v>1.313</v>
+        <v>98</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.433</v>
+        <v>10.422</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.96</v>
       </c>
     </row>
     <row r="4">
@@ -1409,32 +1431,33 @@
       <c r="E4" t="n">
         <v>99.41800000000001</v>
       </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>99.91800000000001</v>
+        <v>263</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.64</v>
+        <v>126.186</v>
       </c>
       <c r="I4" t="n">
-        <v>0.503</v>
+        <v>15.649</v>
       </c>
       <c r="J4" t="n">
+        <v>26.925</v>
+      </c>
+      <c r="K4" t="n">
         <v>999.946</v>
       </c>
-      <c r="K4" t="n">
-        <v>1004.975</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.333</v>
+        <v>1269.179</v>
       </c>
       <c r="M4" t="n">
-        <v>0.168</v>
+        <v>87.666</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.213</v>
+        <v>8.975</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.216</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1484,45 +1507,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Current NAV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return Nifty Equiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>invested</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>weightedDays</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return Nifty Equiv.</t>
         </is>
@@ -1550,32 +1578,33 @@
       <c r="E2" t="n">
         <v>58.097</v>
       </c>
-      <c r="F2" t="n">
-        <v>71</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>60.078</v>
+        <v>330</v>
       </c>
       <c r="H2" t="n">
-        <v>3.626</v>
+        <v>77.658</v>
       </c>
       <c r="I2" t="n">
-        <v>3.408</v>
+        <v>20.614</v>
       </c>
       <c r="J2" t="n">
+        <v>33.669</v>
+      </c>
+      <c r="K2" t="n">
         <v>1999.883</v>
       </c>
-      <c r="K2" t="n">
-        <v>2068.048</v>
-      </c>
       <c r="L2" t="n">
-        <v>35.5</v>
+        <v>2673.218</v>
       </c>
       <c r="M2" t="n">
-        <v>1.704</v>
+        <v>164.998</v>
       </c>
       <c r="N2" t="n">
-        <v>1.813</v>
+        <v>16.834</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.307</v>
       </c>
     </row>
     <row r="3">
@@ -1600,32 +1629,33 @@
       <c r="E3" t="n">
         <v>61.188</v>
       </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>60.078</v>
+        <v>269</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.332</v>
+        <v>77.658</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.814</v>
+        <v>14.844</v>
       </c>
       <c r="J3" t="n">
+        <v>26.918</v>
+      </c>
+      <c r="K3" t="n">
         <v>1999.92</v>
       </c>
-      <c r="K3" t="n">
-        <v>1963.633</v>
-      </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>2538.248</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.907</v>
+        <v>134.501</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.666</v>
+        <v>13.459</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.422</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,45 +1705,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Current NAV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return Nifty Equiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>invested</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>weightedDays</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return Nifty Equiv.</t>
         </is>
@@ -1741,32 +1776,33 @@
       <c r="E2" t="n">
         <v>76.96899999999999</v>
       </c>
-      <c r="F2" t="n">
-        <v>38</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>76.29000000000001</v>
+        <v>297</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.665</v>
+        <v>88.869</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.882</v>
+        <v>15.62</v>
       </c>
       <c r="J2" t="n">
+        <v>15.461</v>
+      </c>
+      <c r="K2" t="n">
         <v>1999.896</v>
       </c>
-      <c r="K2" t="n">
-        <v>1982.253</v>
-      </c>
       <c r="L2" t="n">
-        <v>19</v>
+        <v>2309.094</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.441</v>
+        <v>148.499</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.332</v>
+        <v>7.73</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.81</v>
       </c>
     </row>
     <row r="3">
@@ -1791,32 +1827,33 @@
       <c r="E3" t="n">
         <v>77.438</v>
       </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>76.29000000000001</v>
+        <v>269</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.332</v>
+        <v>88.869</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.482</v>
+        <v>14.844</v>
       </c>
       <c r="J3" t="n">
+        <v>14.762</v>
+      </c>
+      <c r="K3" t="n">
         <v>1999.919</v>
       </c>
-      <c r="K3" t="n">
-        <v>1970.276</v>
-      </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>2295.141</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.741</v>
+        <v>134.501</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.666</v>
+        <v>7.381</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.422</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1866,45 +1903,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Current NAV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return Nifty Equiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>invested</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>weightedDays</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return Nifty Equiv.</t>
         </is>
@@ -1932,32 +1974,33 @@
       <c r="E2" t="n">
         <v>141.098</v>
       </c>
-      <c r="F2" t="n">
-        <v>35</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>145.498</v>
+        <v>294</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.3</v>
+        <v>180.583</v>
       </c>
       <c r="I2" t="n">
-        <v>3.118</v>
+        <v>14.881</v>
       </c>
       <c r="J2" t="n">
+        <v>27.984</v>
+      </c>
+      <c r="K2" t="n">
         <v>999.9640000000001</v>
       </c>
-      <c r="K2" t="n">
-        <v>1031.141</v>
-      </c>
       <c r="L2" t="n">
-        <v>17.5</v>
+        <v>1279.791</v>
       </c>
       <c r="M2" t="n">
-        <v>1.559</v>
+        <v>147.002</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.65</v>
+        <v>13.992</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.441</v>
       </c>
     </row>
     <row r="3">
@@ -1982,32 +2025,33 @@
       <c r="E3" t="n">
         <v>145.339</v>
       </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>145.498</v>
+        <v>263</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.64</v>
+        <v>180.583</v>
       </c>
       <c r="I3" t="n">
-        <v>0.109</v>
+        <v>15.649</v>
       </c>
       <c r="J3" t="n">
+        <v>24.249</v>
+      </c>
+      <c r="K3" t="n">
         <v>999.933</v>
       </c>
-      <c r="K3" t="n">
-        <v>1001.023</v>
-      </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1242.41</v>
       </c>
       <c r="M3" t="n">
-        <v>0.055</v>
+        <v>131.498</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.32</v>
+        <v>12.124</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.824</v>
       </c>
     </row>
   </sheetData>
@@ -2021,7 +2065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,45 +2101,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Current NAV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return Nifty Equiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>invested</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>weightedDays</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return Nifty Equiv.</t>
         </is>
@@ -2123,32 +2172,33 @@
       <c r="E2" t="n">
         <v>118.678</v>
       </c>
-      <c r="F2" t="n">
-        <v>28</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>119.917</v>
+        <v>287</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.202</v>
+        <v>149.132</v>
       </c>
       <c r="I2" t="n">
-        <v>1.044</v>
+        <v>13.831</v>
       </c>
       <c r="J2" t="n">
+        <v>25.661</v>
+      </c>
+      <c r="K2" t="n">
         <v>1999.843</v>
       </c>
-      <c r="K2" t="n">
-        <v>2020.721</v>
-      </c>
       <c r="L2" t="n">
-        <v>28</v>
+        <v>2513.023</v>
       </c>
       <c r="M2" t="n">
-        <v>1.044</v>
+        <v>287</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.202</v>
+        <v>25.661</v>
+      </c>
+      <c r="O2" t="n">
+        <v>13.831</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +2212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2198,45 +2248,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Current NAV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return Nifty Equiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>invested</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>weightedDays</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return Nifty Equiv.</t>
         </is>
@@ -2264,32 +2319,33 @@
       <c r="E2" t="n">
         <v>85.81</v>
       </c>
-      <c r="F2" t="n">
-        <v>25</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>86.29000000000001</v>
+        <v>284</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.841</v>
+        <v>109.92</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5590000000000001</v>
+        <v>14.251</v>
       </c>
       <c r="J2" t="n">
+        <v>28.097</v>
+      </c>
+      <c r="K2" t="n">
         <v>999.944</v>
       </c>
-      <c r="K2" t="n">
-        <v>1005.537</v>
-      </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>1280.898</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5590000000000001</v>
+        <v>284</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.841</v>
+        <v>28.097</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14.251</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2339,45 +2395,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>days</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Current NAV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return Nifty Equiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Absolute Return</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>invested</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>weightedDays</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weighted Absolute Return Nifty Equiv.</t>
         </is>
@@ -2405,32 +2466,33 @@
       <c r="E2" t="n">
         <v>125.315</v>
       </c>
-      <c r="F2" t="n">
-        <v>25</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>127.976</v>
+        <v>284</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.841</v>
+        <v>171.073</v>
       </c>
       <c r="I2" t="n">
-        <v>2.123</v>
+        <v>14.251</v>
       </c>
       <c r="J2" t="n">
+        <v>36.514</v>
+      </c>
+      <c r="K2" t="n">
         <v>999.8920000000001</v>
       </c>
-      <c r="K2" t="n">
-        <v>1021.12</v>
-      </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>1364.991</v>
       </c>
       <c r="M2" t="n">
-        <v>2.123</v>
+        <v>284</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.841</v>
+        <v>36.514</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14.251</v>
       </c>
     </row>
   </sheetData>
